--- a/EASE/EASE(S)-OneWay-Rattan.xlsx
+++ b/EASE/EASE(S)-OneWay-Rattan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\EASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D842D38-20FC-4FA0-A15C-A52F94A3DDDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="114_{4EEB8260-5882-4CF1-BA62-C172A1BDEEDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{42909984-1D6B-45B0-AD54-404151559045}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="795" windowWidth="21645" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="31" r:id="rId1"/>
@@ -36,7 +36,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="145">
   <si>
     <t>Group</t>
   </si>
@@ -418,9 +420,6 @@
     <t>EASE: Estimation Approach to Statistics with Excel</t>
   </si>
   <si>
-    <t>Version: 2.20191030</t>
-  </si>
-  <si>
     <t>This module uses summary data (not raw data) as input.</t>
   </si>
   <si>
@@ -469,9 +468,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>https://github.com/cwendorf/BASE/tree/master/EASE</t>
-  </si>
-  <si>
     <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheet].</t>
   </si>
   <si>
@@ -481,7 +477,10 @@
     <t>cwendorf@uwsp.edu</t>
   </si>
   <si>
-    <t>Retreived from https://github.com/cwendorf/BASE/tree/master/EASE</t>
+    <t>Version: 2.20200104</t>
+  </si>
+  <si>
+    <t>https://cwendorf.github.io/BASE/EASE</t>
   </si>
 </sst>
 </file>
@@ -8900,23 +8899,23 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:K32"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="29"/>
-    <col min="9" max="10" width="4.5703125" style="29" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="29"/>
-    <col min="18" max="19" width="4.5703125" style="29" customWidth="1"/>
-    <col min="20" max="16384" width="11.140625" style="29"/>
+    <col min="1" max="1" width="4.578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="29"/>
+    <col min="9" max="10" width="4.578125" style="29" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="29"/>
+    <col min="18" max="19" width="4.578125" style="29" customWidth="1"/>
+    <col min="20" max="16384" width="11.15625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="146"/>
     </row>
-    <row r="2" spans="1:17" s="143" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="143" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="146"/>
       <c r="B2" s="208" t="s">
         <v>123</v>
@@ -8939,7 +8938,7 @@
       <c r="P2" s="209"/>
       <c r="Q2" s="209"/>
     </row>
-    <row r="3" spans="1:17" s="143" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="143" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="146"/>
       <c r="B3" s="210" t="s">
         <v>36</v>
@@ -8953,7 +8952,7 @@
       <c r="I3" s="207"/>
       <c r="J3" s="207"/>
       <c r="K3" s="210" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="L3" s="210"/>
       <c r="M3" s="210"/>
@@ -8962,10 +8961,10 @@
       <c r="P3" s="210"/>
       <c r="Q3" s="210"/>
     </row>
-    <row r="4" spans="1:17" s="152" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="152" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="151"/>
       <c r="B4" s="210" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="210"/>
       <c r="D4" s="210"/>
@@ -8976,7 +8975,7 @@
       <c r="I4" s="207"/>
       <c r="J4" s="207"/>
       <c r="K4" s="211" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L4" s="210"/>
       <c r="M4" s="210"/>
@@ -8985,7 +8984,7 @@
       <c r="P4" s="210"/>
       <c r="Q4" s="210"/>
     </row>
-    <row r="5" spans="1:17" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="146"/>
       <c r="I5" s="148"/>
       <c r="J5" s="148"/>
@@ -8997,7 +8996,7 @@
       <c r="P5" s="148"/>
       <c r="Q5" s="148"/>
     </row>
-    <row r="6" spans="1:17" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="146"/>
       <c r="B6" s="6" t="s">
         <v>87</v>
@@ -9006,7 +9005,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="29" t="s">
         <v>100</v>
       </c>
@@ -9014,7 +9013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="29" t="s">
         <v>103</v>
       </c>
@@ -9022,7 +9021,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="29" t="s">
         <v>108</v>
       </c>
@@ -9030,12 +9029,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="29" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B13" s="6" t="s">
         <v>89</v>
       </c>
@@ -9043,10 +9042,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="29" t="s">
         <v>9</v>
       </c>
@@ -9054,16 +9053,16 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="29"/>
       <c r="B16" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K16" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="29"/>
       <c r="B17" s="29" t="s">
         <v>101</v>
@@ -9072,7 +9071,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="29"/>
       <c r="B18" s="29" t="s">
         <v>102</v>
@@ -9081,7 +9080,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="29"/>
       <c r="B20" s="6" t="s">
         <v>92</v>
@@ -9090,7 +9089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="29"/>
       <c r="B22" s="26" t="s">
         <v>93</v>
@@ -9107,7 +9106,7 @@
       <c r="O22"/>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="29"/>
       <c r="B23" s="26" t="s">
         <v>94</v>
@@ -9124,7 +9123,7 @@
       <c r="O23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="29"/>
       <c r="B24" s="26" t="s">
         <v>98</v>
@@ -9141,7 +9140,7 @@
       <c r="O24"/>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="29"/>
       <c r="B25" s="29" t="s">
         <v>122</v>
@@ -9150,7 +9149,7 @@
         <v>107</v>
       </c>
       <c r="K25" s="206" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -9158,7 +9157,7 @@
       <c r="O25"/>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="29"/>
       <c r="B26" s="26" t="s">
         <v>99</v>
@@ -9175,7 +9174,7 @@
       <c r="O26"/>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="29"/>
       <c r="L27"/>
       <c r="M27"/>
@@ -9184,13 +9183,13 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="29"/>
       <c r="B28" s="6" t="s">
         <v>120</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -9199,7 +9198,7 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="29"/>
       <c r="B29" s="28"/>
       <c r="L29"/>
@@ -9209,7 +9208,7 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="29"/>
       <c r="B30" s="28" t="s">
         <v>95</v>
@@ -9224,13 +9223,13 @@
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="29"/>
       <c r="B31" s="28" t="s">
         <v>96</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9239,13 +9238,13 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="29"/>
       <c r="B32" s="28" t="s">
         <v>97</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9254,7 +9253,7 @@
       <c r="P32"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="29"/>
       <c r="L33"/>
       <c r="M33"/>
@@ -9295,29 +9294,29 @@
       <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="11.140625" style="5"/>
-    <col min="6" max="6" width="11.140625" style="42"/>
-    <col min="7" max="8" width="11.140625" style="5"/>
-    <col min="9" max="10" width="4.5703125" style="5" customWidth="1"/>
-    <col min="11" max="13" width="11.140625" style="196" customWidth="1"/>
-    <col min="14" max="17" width="11.140625" style="5"/>
-    <col min="18" max="18" width="4.5703125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="11.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="5"/>
+    <col min="1" max="1" width="4.578125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="11.15625" style="5"/>
+    <col min="6" max="6" width="11.15625" style="42"/>
+    <col min="7" max="8" width="11.15625" style="5"/>
+    <col min="9" max="10" width="4.578125" style="5" customWidth="1"/>
+    <col min="11" max="13" width="11.15625" style="196" customWidth="1"/>
+    <col min="14" max="17" width="11.15625" style="5"/>
+    <col min="18" max="18" width="4.578125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="5" hidden="1" customWidth="1"/>
+    <col min="20" max="26" width="11.15625" style="5" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="4.578125" style="5" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="F1" s="5"/>
       <c r="K1" s="42"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="214" t="s">
         <v>31</v>
       </c>
@@ -9346,7 +9345,7 @@
       <c r="Y2" s="214"/>
       <c r="Z2" s="214"/>
     </row>
-    <row r="3" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:26" ht="18.3" x14ac:dyDescent="0.7">
       <c r="E3" s="1"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -9356,7 +9355,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="12" t="s">
         <v>31</v>
       </c>
@@ -9380,7 +9379,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K5" s="52"/>
       <c r="L5" s="52"/>
       <c r="M5" s="52"/>
@@ -9397,7 +9396,7 @@
       <c r="Y5" s="52"/>
       <c r="Z5" s="52"/>
     </row>
-    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="218" t="s">
         <v>29</v>
       </c>
@@ -9449,9 +9448,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="221" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="221"/>
       <c r="D7" s="221"/>
@@ -9468,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="197" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O7" s="197">
         <v>18</v>
@@ -9508,7 +9507,7 @@
         <v>0.4518412331782039</v>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="222"/>
       <c r="C8" s="222"/>
       <c r="D8" s="222"/>
@@ -9525,7 +9524,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="198" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O8" s="198">
         <v>17</v>
@@ -9565,7 +9564,7 @@
         <v>0.35119158505261011</v>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -9582,7 +9581,7 @@
         <v>3</v>
       </c>
       <c r="N9" s="198" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O9" s="198">
         <v>19</v>
@@ -9622,7 +9621,7 @@
         <v>0.32875274663651499</v>
       </c>
     </row>
-    <row r="10" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="220" t="s">
         <v>30</v>
       </c>
@@ -9672,9 +9671,9 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="215" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="215"/>
       <c r="D11" s="215"/>
@@ -9730,7 +9729,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="216"/>
       <c r="C12" s="216"/>
       <c r="D12" s="216"/>
@@ -9754,7 +9753,7 @@
       <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="216"/>
       <c r="C13" s="216"/>
       <c r="D13" s="216"/>
@@ -9773,7 +9772,7 @@
       <c r="Y13" s="52"/>
       <c r="Z13" s="52"/>
     </row>
-    <row r="14" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="217"/>
       <c r="C14" s="217"/>
       <c r="D14" s="217"/>
@@ -9790,7 +9789,7 @@
       <c r="Y14" s="52"/>
       <c r="Z14" s="52"/>
     </row>
-    <row r="19" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B19" s="12" t="s">
         <v>39</v>
       </c>
@@ -9809,7 +9808,7 @@
       <c r="Y19" s="97"/>
       <c r="Z19" s="107"/>
     </row>
-    <row r="20" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
@@ -9826,7 +9825,7 @@
       <c r="Y20" s="52"/>
       <c r="Z20" s="52"/>
     </row>
-    <row r="21" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="218" t="s">
         <v>28</v>
       </c>
@@ -9861,13 +9860,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="212" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="212"/>
       <c r="D22" s="212" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E22" s="212"/>
       <c r="F22" s="212"/>
@@ -9886,13 +9885,13 @@
       <c r="Y22" s="108"/>
       <c r="Z22" s="108"/>
     </row>
-    <row r="23" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="213" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" s="213"/>
       <c r="D23" s="213" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E23" s="213"/>
       <c r="F23" s="213"/>
@@ -9911,7 +9910,7 @@
       <c r="Y23" s="109"/>
       <c r="Z23" s="109"/>
     </row>
-    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -9930,7 +9929,7 @@
       </c>
       <c r="Z24" s="109"/>
     </row>
-    <row r="25" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="96" t="str">
         <f>IF(B22="","",B22)</f>
         <v>Feedback</v>
@@ -9956,13 +9955,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="212" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" s="212"/>
       <c r="D26" s="212" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E26" s="212"/>
       <c r="F26" s="212"/>
@@ -9979,13 +9978,13 @@
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="223" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" s="223"/>
       <c r="D27" s="223" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" s="223"/>
       <c r="F27" s="223"/>
@@ -10004,13 +10003,13 @@
       <c r="Y27" s="52"/>
       <c r="Z27" s="52"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="223" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" s="223"/>
       <c r="D28" s="223" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28" s="223"/>
       <c r="F28" s="223"/>
@@ -10027,7 +10026,7 @@
       <c r="Y28" s="52"/>
       <c r="Z28" s="52"/>
     </row>
-    <row r="29" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:26" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B29" s="213"/>
       <c r="C29" s="213"/>
       <c r="D29" s="213"/>
@@ -10045,7 +10044,7 @@
       <c r="Y29" s="56"/>
       <c r="Z29" s="26"/>
     </row>
-    <row r="30" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -10062,7 +10061,7 @@
       <c r="Y30" s="56"/>
       <c r="Z30" s="26"/>
     </row>
-    <row r="31" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="E31" s="45"/>
@@ -10090,7 +10089,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="45"/>
       <c r="C32" s="45"/>
       <c r="E32" s="45"/>
@@ -10124,7 +10123,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
       <c r="E33" s="45"/>
@@ -10149,7 +10148,7 @@
       <c r="Y33" s="82"/>
       <c r="Z33" s="83"/>
     </row>
-    <row r="34" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B34" s="45"/>
       <c r="C34" s="45"/>
       <c r="E34" s="45"/>
@@ -10174,7 +10173,7 @@
       <c r="Y34" s="84"/>
       <c r="Z34" s="86"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="45"/>
       <c r="C35" s="45"/>
       <c r="E35" s="45"/>
@@ -10188,39 +10187,39 @@
       <c r="Y35" s="57"/>
       <c r="Z35" s="57"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="45"/>
       <c r="C36" s="45"/>
       <c r="E36" s="45"/>
       <c r="F36" s="45"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="45"/>
       <c r="C37" s="45"/>
       <c r="E37" s="45"/>
       <c r="F37" s="45"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="45"/>
       <c r="C38" s="45"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="45"/>
       <c r="C39" s="45"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="45"/>
       <c r="C40" s="45"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="45"/>
       <c r="C41" s="45"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="45"/>
       <c r="C42" s="45"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="45"/>
       <c r="C43" s="45"/>
     </row>
@@ -10265,26 +10264,26 @@
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="117" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="40"/>
-    <col min="9" max="9" width="4.5703125" style="40" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="117" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="40"/>
-    <col min="18" max="18" width="4.5703125" style="117" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="40" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="117" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="40"/>
+    <col min="9" max="9" width="4.578125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="4.578125" style="117" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="40"/>
+    <col min="18" max="18" width="4.578125" style="117" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="40" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="40" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="40" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="40"/>
+    <col min="27" max="27" width="4.578125" style="40" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="145" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="144"/>
       <c r="J1" s="144"/>
       <c r="R1" s="144"/>
     </row>
-    <row r="2" spans="1:26" s="145" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="145" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="144"/>
       <c r="B2" s="224" t="s">
         <v>40</v>
@@ -10317,7 +10316,7 @@
       <c r="Y2" s="224"/>
       <c r="Z2" s="224"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="116"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -10336,7 +10335,7 @@
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="6" t="s">
         <v>113</v>
       </c>
@@ -10365,7 +10364,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="116"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -10384,7 +10383,7 @@
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="116"/>
       <c r="B6" s="156" t="s">
         <v>0</v>
@@ -10426,7 +10425,7 @@
       </c>
       <c r="Q6" s="225"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="116"/>
       <c r="B7" s="158" t="str">
         <f>IF(Data!T7="","",Data!T7)</f>
@@ -10486,7 +10485,7 @@
         <v>0.13346206028840946</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="116"/>
       <c r="B8" s="83" t="str">
         <f>IF(Data!T8="","",Data!T8)</f>
@@ -10546,7 +10545,7 @@
         <v>1.4261129187353274</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="116"/>
       <c r="B9" s="83" t="str">
         <f>IF(Data!T9="","",Data!T9)</f>
@@ -10606,7 +10605,7 @@
         <v>0.76872280405704618</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="116"/>
       <c r="B10" s="83" t="str">
         <f>IF(Data!T10="","",Data!T10)</f>
@@ -10666,7 +10665,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="116"/>
       <c r="B11" s="57"/>
       <c r="C11" s="57"/>
@@ -10685,13 +10684,13 @@
       <c r="P11" s="57"/>
       <c r="Q11" s="57"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="116"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="116"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B14" s="7" t="s">
         <v>115</v>
       </c>
@@ -10715,7 +10714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="27"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -10734,7 +10733,7 @@
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="27"/>
       <c r="B16" s="140" t="s">
         <v>78</v>
@@ -10783,7 +10782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="27"/>
       <c r="B17" s="47" t="s">
         <v>0</v>
@@ -10852,7 +10851,7 @@
         <v>0.56623156716637291</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27"/>
       <c r="B18" s="46">
         <v>1.1000000000000001</v>
@@ -10926,7 +10925,7 @@
         <v>5.88001419800365</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27"/>
       <c r="B19" s="46">
         <v>1.1000000000000001</v>
@@ -11000,7 +10999,7 @@
         <v>3.3507850184798826</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="27"/>
       <c r="B20" s="46">
         <v>1.1000000000000001</v>
@@ -11074,7 +11073,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="27"/>
       <c r="B21" s="46">
         <v>2.1</v>
@@ -11127,7 +11126,7 @@
       <c r="Y21" s="136"/>
       <c r="Z21" s="136"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="27"/>
       <c r="B22" s="46">
         <v>2.1</v>
@@ -11194,7 +11193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="27"/>
       <c r="B23" s="46">
         <v>2.1</v>
@@ -11268,7 +11267,7 @@
         <v>0.56497536113977276</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="27"/>
       <c r="B24" s="46">
         <v>3.1</v>
@@ -11342,7 +11341,7 @@
         <v>5.88001419800365</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="27"/>
       <c r="B25" s="46">
         <v>3.1</v>
@@ -11416,7 +11415,7 @@
         <v>3.3507850184798826</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="27"/>
       <c r="B26" s="46">
         <v>3.1</v>
@@ -11490,7 +11489,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="27"/>
       <c r="B27" s="46">
         <v>4.0999999999999996</v>
@@ -11543,7 +11542,7 @@
       <c r="Y27" s="132"/>
       <c r="Z27" s="132"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="27"/>
       <c r="B28" s="47">
         <v>4.0999999999999996</v>
@@ -11604,7 +11603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="27"/>
       <c r="B29" s="47">
         <v>4.0999999999999996</v>
@@ -11670,7 +11669,7 @@
         <v>0.56623156716637291</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="27"/>
       <c r="B30" s="87"/>
       <c r="C30" s="87"/>
@@ -11709,7 +11708,7 @@
         <v>5.8643891692173318</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="27"/>
       <c r="B31" s="87"/>
       <c r="C31" s="87"/>
@@ -11748,7 +11747,7 @@
         <v>3.3498999151626423</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="27"/>
       <c r="B32" s="87"/>
       <c r="C32" s="87"/>
@@ -11786,7 +11785,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="133"/>
       <c r="B33" s="87"/>
       <c r="C33" s="87"/>
@@ -11803,7 +11802,7 @@
       <c r="Y33" s="132"/>
       <c r="Z33" s="132"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="116"/>
       <c r="B34" s="87"/>
       <c r="C34" s="28"/>
@@ -11814,7 +11813,7 @@
       <c r="H34" s="28"/>
       <c r="I34" s="26"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="116"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -11824,7 +11823,7 @@
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="58" t="s">
         <v>114</v>
       </c>
@@ -11840,7 +11839,7 @@
       <c r="P37" s="116"/>
       <c r="Q37" s="116"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I38" s="26"/>
       <c r="J38" s="116"/>
       <c r="K38" s="116"/>
@@ -11851,7 +11850,7 @@
       <c r="P38" s="116"/>
       <c r="Q38" s="116"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="155" t="s">
         <v>0</v>
       </c>
@@ -11887,7 +11886,7 @@
       <c r="P39" s="116"/>
       <c r="Q39" s="116"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="158" t="str">
         <f>B7</f>
         <v>Reassure</v>
@@ -11933,7 +11932,7 @@
       <c r="U40" s="117"/>
       <c r="V40" s="117"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="83" t="str">
         <f>B8</f>
         <v>Challenge</v>
@@ -11979,7 +11978,7 @@
       <c r="U41" s="117"/>
       <c r="V41" s="117"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="83" t="str">
         <f>B9</f>
         <v>Encourage</v>
@@ -12025,7 +12024,7 @@
       <c r="U42" s="117"/>
       <c r="V42" s="117"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="159" t="str">
         <f>B10</f>
         <v/>
@@ -12067,7 +12066,7 @@
       <c r="U43" s="117"/>
       <c r="V43" s="117"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="132"/>
       <c r="C44" s="57"/>
       <c r="D44" s="132"/>
@@ -12115,21 +12114,21 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="52" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="52"/>
-    <col min="9" max="10" width="4.5703125" style="52" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="52"/>
-    <col min="18" max="18" width="4.5703125" style="52" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="52" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="52" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="52"/>
+    <col min="9" max="10" width="4.578125" style="52" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="52"/>
+    <col min="18" max="18" width="4.578125" style="52" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="52" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="52" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="52" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="52"/>
+    <col min="27" max="27" width="4.578125" style="52" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:26" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="2:26" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="224" t="s">
         <v>75</v>
       </c>
@@ -12158,7 +12157,7 @@
       <c r="Y2" s="224"/>
       <c r="Z2" s="224"/>
     </row>
-    <row r="4" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="58" t="s">
         <v>113</v>
       </c>
@@ -12191,7 +12190,7 @@
       <c r="Y4" s="40"/>
       <c r="Z4" s="40"/>
     </row>
-    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
@@ -12209,7 +12208,7 @@
       <c r="Y5" s="40"/>
       <c r="Z5" s="40"/>
     </row>
-    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="155" t="s">
         <v>0</v>
       </c>
@@ -12259,7 +12258,7 @@
       <c r="Y6" s="40"/>
       <c r="Z6" s="40"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="103">
         <v>2</v>
       </c>
@@ -12325,7 +12324,7 @@
       <c r="Y7" s="40"/>
       <c r="Z7" s="40"/>
     </row>
-    <row r="8" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="175">
         <v>1</v>
       </c>
@@ -12391,7 +12390,7 @@
       <c r="Y8" s="40"/>
       <c r="Z8" s="40"/>
     </row>
-    <row r="9" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="101"/>
       <c r="C9" s="101"/>
       <c r="D9" s="101"/>
@@ -12416,7 +12415,7 @@
       <c r="Y9" s="40"/>
       <c r="Z9" s="40"/>
     </row>
-    <row r="10" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="186" t="s">
         <v>112</v>
       </c>
@@ -12464,7 +12463,7 @@
       <c r="Y10" s="40"/>
       <c r="Z10" s="40"/>
     </row>
-    <row r="11" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="165" t="s">
         <v>69</v>
       </c>
@@ -12527,7 +12526,7 @@
       <c r="Y11" s="40"/>
       <c r="Z11" s="40"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
@@ -12552,7 +12551,7 @@
       <c r="Y12" s="40"/>
       <c r="Z12" s="40"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="R13" s="117"/>
       <c r="S13" s="40"/>
       <c r="T13" s="40"/>
@@ -12563,7 +12562,7 @@
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
     </row>
-    <row r="14" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B14" s="58" t="s">
         <v>115</v>
       </c>
@@ -12593,7 +12592,7 @@
       <c r="Y14" s="40"/>
       <c r="Z14" s="40"/>
     </row>
-    <row r="15" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
@@ -12611,7 +12610,7 @@
       <c r="Y15" s="40"/>
       <c r="Z15" s="40"/>
     </row>
-    <row r="16" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="153" t="s">
         <v>78</v>
       </c>
@@ -12663,7 +12662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="41" t="s">
         <v>0</v>
       </c>
@@ -12732,7 +12731,7 @@
         <v>5.88001419800365</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="41">
         <v>1.1000000000000001</v>
       </c>
@@ -12811,7 +12810,7 @@
         <v>0.56623156716637291</v>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="41">
         <v>1.1000000000000001</v>
       </c>
@@ -12890,7 +12889,7 @@
         <v>-1.2049028306679732</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="41">
         <v>1.1000000000000001</v>
       </c>
@@ -12948,7 +12947,7 @@
       <c r="Y20" s="136"/>
       <c r="Z20" s="136"/>
     </row>
-    <row r="21" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="41">
         <v>2.1</v>
       </c>
@@ -13020,7 +13019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="41">
         <v>2.1</v>
       </c>
@@ -13099,7 +13098,7 @@
         <v>5.88001419800365</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="41">
         <v>2.1</v>
       </c>
@@ -13176,7 +13175,7 @@
         <v>0.56497536113977276</v>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="41">
         <v>2.75</v>
       </c>
@@ -13253,7 +13252,7 @@
         <v>-1.2084243892117001</v>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="41">
         <v>2.75</v>
       </c>
@@ -13309,7 +13308,7 @@
       <c r="Y25" s="132"/>
       <c r="Z25" s="132"/>
     </row>
-    <row r="26" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="41">
         <v>2.75</v>
       </c>
@@ -13375,7 +13374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="87"/>
       <c r="C27" s="105"/>
       <c r="D27" s="105"/>
@@ -13430,7 +13429,7 @@
         <v>5.8643891692173318</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="87"/>
       <c r="C28" s="87"/>
       <c r="D28" s="105"/>
@@ -13487,7 +13486,7 @@
         <v>0.56623156716637291</v>
       </c>
     </row>
-    <row r="29" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="87"/>
       <c r="C29" s="87"/>
       <c r="D29" s="105"/>
@@ -13526,7 +13525,7 @@
         <v>-1.2049028306679732</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="171" t="s">
         <v>79</v>
       </c>
@@ -13558,7 +13557,7 @@
       <c r="Y30" s="132"/>
       <c r="Z30" s="132"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="41">
         <v>1.1000000000000001</v>
       </c>
@@ -13615,7 +13614,7 @@
       <c r="T31" s="40"/>
       <c r="U31" s="40"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="41">
         <v>3.15</v>
       </c>
@@ -13670,7 +13669,7 @@
       </c>
       <c r="S32" s="40"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="41"/>
       <c r="C33" s="105"/>
       <c r="D33" s="41"/>
@@ -13687,7 +13686,7 @@
       <c r="Q33" s="87"/>
       <c r="S33" s="40"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="41"/>
       <c r="C34" s="105"/>
       <c r="D34" s="41"/>
@@ -13720,7 +13719,7 @@
       <c r="Y34" s="40"/>
       <c r="Z34" s="40"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="41"/>
       <c r="C35" s="105"/>
       <c r="D35" s="41"/>
@@ -13753,7 +13752,7 @@
       <c r="Y35" s="40"/>
       <c r="Z35" s="40"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="41"/>
       <c r="C36" s="105"/>
       <c r="D36" s="41"/>
@@ -13777,7 +13776,7 @@
       <c r="Y36" s="40"/>
       <c r="Z36" s="40"/>
     </row>
-    <row r="37" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="58" t="s">
         <v>114</v>
       </c>
@@ -13800,7 +13799,7 @@
       <c r="Y37" s="117"/>
       <c r="Z37" s="117"/>
     </row>
-    <row r="38" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K38" s="116"/>
       <c r="L38" s="116"/>
       <c r="M38" s="116"/>
@@ -13818,7 +13817,7 @@
       <c r="Y38" s="117"/>
       <c r="Z38" s="117"/>
     </row>
-    <row r="39" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="155" t="s">
         <v>0</v>
       </c>
@@ -13861,7 +13860,7 @@
       <c r="Y39" s="117"/>
       <c r="Z39" s="117"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="67">
         <f>IF(B7="","",B7)</f>
         <v>2</v>
@@ -13911,7 +13910,7 @@
       <c r="Y40" s="117"/>
       <c r="Z40" s="117"/>
     </row>
-    <row r="41" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B41" s="111">
         <f>IF(B8="","",B8)</f>
         <v>1</v>
@@ -13961,7 +13960,7 @@
       <c r="Y41" s="117"/>
       <c r="Z41" s="117"/>
     </row>
-    <row r="42" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B42" s="38"/>
       <c r="C42" s="101"/>
       <c r="D42" s="38"/>
@@ -13986,7 +13985,7 @@
       <c r="Y42" s="117"/>
       <c r="Z42" s="117"/>
     </row>
-    <row r="43" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="187" t="s">
         <v>112</v>
       </c>
@@ -14029,7 +14028,7 @@
       <c r="Y43" s="117"/>
       <c r="Z43" s="117"/>
     </row>
-    <row r="44" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B44" s="165" t="s">
         <v>69</v>
       </c>
@@ -14077,7 +14076,7 @@
       <c r="Y44" s="117"/>
       <c r="Z44" s="117"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
@@ -14132,21 +14131,21 @@
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="29" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="29"/>
-    <col min="9" max="9" width="4.5703125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="32" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="32" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" style="32" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="32" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="29" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="29"/>
+    <col min="9" max="9" width="4.578125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="4.578125" style="32" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="32" customWidth="1"/>
+    <col min="18" max="18" width="4.578125" style="32" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="32" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="32" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="32" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="32"/>
+    <col min="27" max="27" width="4.578125" style="32" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="142" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="143"/>
       <c r="B1" s="143"/>
       <c r="C1" s="143"/>
@@ -14157,7 +14156,7 @@
       <c r="H1" s="143"/>
       <c r="I1" s="143"/>
     </row>
-    <row r="2" spans="1:27" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
       <c r="B2" s="224" t="s">
         <v>43</v>
@@ -14190,7 +14189,7 @@
       <c r="Y2" s="224"/>
       <c r="Z2" s="224"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -14200,7 +14199,7 @@
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="7" t="s">
         <v>113</v>
       </c>
@@ -14234,7 +14233,7 @@
       <c r="Z4" s="52"/>
       <c r="AA4" s="52"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
@@ -14253,7 +14252,7 @@
       <c r="Z5" s="52"/>
       <c r="AA5" s="52"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="61" t="s">
         <v>4</v>
       </c>
@@ -14319,7 +14318,7 @@
       </c>
       <c r="AA6" s="52"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="20" t="str">
         <f>IF(D7="","","1 vs. 2")</f>
         <v>1 vs. 2</v>
@@ -14407,7 +14406,7 @@
       </c>
       <c r="AA7" s="52"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="22" t="str">
         <f>IF(D8="","","1 vs. 3")</f>
         <v>1 vs. 3</v>
@@ -14496,7 +14495,7 @@
       </c>
       <c r="AA8" s="52"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="22" t="str">
         <f>IF(D9="","","2 vs. 3")</f>
         <v>2 vs. 3</v>
@@ -14585,7 +14584,7 @@
       </c>
       <c r="AA9" s="52"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="22" t="str">
         <f>IF(D10="","","1 vs. 4")</f>
         <v/>
@@ -14674,7 +14673,7 @@
       </c>
       <c r="AA10" s="52"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="22" t="str">
         <f>IF(D11="","","2 vs. 4")</f>
         <v/>
@@ -14763,7 +14762,7 @@
       </c>
       <c r="AA11" s="52"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="24" t="str">
         <f>IF(D12="","","3 vs. 4")</f>
         <v/>
@@ -14852,7 +14851,7 @@
       </c>
       <c r="AA12" s="52"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2"/>
       <c r="C13" s="38"/>
       <c r="D13" s="2"/>
@@ -14878,7 +14877,7 @@
       <c r="Z13" s="38"/>
       <c r="AA13" s="52"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B14" s="7" t="s">
         <v>115</v>
       </c>
@@ -14895,7 +14894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
@@ -14905,7 +14904,7 @@
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="140" t="s">
         <v>78</v>
       </c>
@@ -14951,7 +14950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="47" t="s">
         <v>0</v>
       </c>
@@ -15016,7 +15015,7 @@
         <v>-1.2049028306679732</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="49">
         <v>1.1000000000000001</v>
       </c>
@@ -15087,7 +15086,7 @@
         <v>2.0228584672398631E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="49">
         <v>1.1000000000000001</v>
       </c>
@@ -15158,7 +15157,7 @@
         <v>3.6904109645679455</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B20" s="49">
         <v>1.1000000000000001</v>
       </c>
@@ -15230,7 +15229,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="49">
         <v>2.1</v>
       </c>
@@ -15301,7 +15300,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="49">
         <v>2.1</v>
       </c>
@@ -15372,7 +15371,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="49">
         <v>2.1</v>
       </c>
@@ -15422,7 +15421,7 @@
       <c r="Y23" s="101"/>
       <c r="Z23" s="101"/>
     </row>
-    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="49">
         <v>3.1</v>
       </c>
@@ -15486,7 +15485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="49">
         <v>3.1</v>
       </c>
@@ -15557,7 +15556,7 @@
         <v>-1.2084243892117001</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="49">
         <v>3.1</v>
       </c>
@@ -15628,7 +15627,7 @@
         <v>1.9481803095231953E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="49">
         <v>4.0999999999999996</v>
       </c>
@@ -15699,7 +15698,7 @@
         <v>3.6904109645679455</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="48">
         <v>4.0999999999999996</v>
       </c>
@@ -15770,7 +15769,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="48">
         <v>4.0999999999999996</v>
       </c>
@@ -15841,7 +15840,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="49">
         <v>5.0999999999999996</v>
       </c>
@@ -15912,7 +15911,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="49">
         <v>5.0999999999999996</v>
       </c>
@@ -15962,7 +15961,7 @@
       <c r="Y31" s="52"/>
       <c r="Z31" s="52"/>
     </row>
-    <row r="32" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B32" s="49">
         <v>5.0999999999999996</v>
       </c>
@@ -16019,7 +16018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B33" s="49">
         <v>6.1</v>
       </c>
@@ -16082,7 +16081,7 @@
         <v>-1.2049028306679732</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="49">
         <v>6.1</v>
       </c>
@@ -16145,7 +16144,7 @@
         <v>2.0228584672398631E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="49">
         <v>6.1</v>
       </c>
@@ -16208,7 +16207,7 @@
         <v>3.6899236220983034</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
@@ -16237,7 +16236,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="58" t="s">
         <v>114</v>
       </c>
@@ -16278,7 +16277,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B38" s="52"/>
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
@@ -16315,7 +16314,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="90" t="s">
         <v>4</v>
       </c>
@@ -16355,7 +16354,7 @@
       <c r="Y39" s="38"/>
       <c r="Z39" s="38"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="20" t="str">
         <f t="shared" ref="B40:B45" si="33">B7</f>
         <v>1 vs. 2</v>
@@ -16397,7 +16396,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="22" t="str">
         <f t="shared" si="33"/>
         <v>1 vs. 3</v>
@@ -16439,7 +16438,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="22" t="str">
         <f t="shared" si="33"/>
         <v>2 vs. 3</v>
@@ -16481,7 +16480,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="22" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -16519,7 +16518,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="22" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -16557,7 +16556,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B45" s="24" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -16595,7 +16594,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="38"/>
       <c r="C46" s="2"/>
       <c r="D46" s="38"/>
@@ -16612,7 +16611,7 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="33"/>
       <c r="C52" s="52"/>
       <c r="D52" s="52"/>
@@ -16622,7 +16621,7 @@
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="52"/>
     </row>
   </sheetData>

--- a/EASE/EASE(S)-OneWay-Rattan.xlsx
+++ b/EASE/EASE(S)-OneWay-Rattan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="114_{4EEB8260-5882-4CF1-BA62-C172A1BDEEDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{42909984-1D6B-45B0-AD54-404151559045}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="114_{A20865A6-9300-4990-B397-5A911DB3B1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B41DD0F-969D-477C-A9A7-A4D15BC5A381}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="31" r:id="rId1"/>
@@ -429,9 +429,6 @@
     <t>Data from Rattan (2012)</t>
   </si>
   <si>
-    <t>This is the full data from Rattan (2012) as used in Chap. 14 of Cumming and Calin-Jageman (2016) to demonstrate One-Way designs.</t>
-  </si>
-  <si>
     <t>Feedback</t>
   </si>
   <si>
@@ -481,6 +478,9 @@
   </si>
   <si>
     <t>https://cwendorf.github.io/BASE/EASE</t>
+  </si>
+  <si>
+    <t>This is the summary data from Rattan (2012) as used in Chap. 14 of Cumming and Calin-Jageman (2016) to demonstrate One-Way designs.</t>
   </si>
 </sst>
 </file>
@@ -1458,11 +1458,15 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1492,10 +1496,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3629,6 +3629,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{E3265A31-6700-453D-931B-5FFB5157F782}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -3640,7 +3645,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3653,6 +3662,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{BC8D5598-BF64-44B6-A6B9-DE152194C5A7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -3664,7 +3678,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3677,6 +3695,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{38D711DD-A0E0-4A26-98A1-198ECF5AAD68}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -3688,7 +3711,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3701,6 +3728,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{F814B859-1282-47AC-BDD0-C0F168372440}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -3712,7 +3744,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3725,6 +3761,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{CA24BD9B-6108-44E6-9283-54229E3B556B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -3736,7 +3777,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3749,6 +3794,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{77FCB33A-3AC2-4D40-BCA2-A54FFBDF05EC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -3760,7 +3810,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-97B6-4CF0-9A3E-619917FF6CA1}"/>
                 </c:ext>
@@ -3897,6 +3951,47 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$H$18:$H$28</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-1.000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>-2.000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>-3.000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>-4.000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2B54-48E7-B1A3-3FFDB5D5F70E}"/>
             </c:ext>
@@ -4359,6 +4454,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{79299B35-18C9-4DC7-8760-D46E7AB5286C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4371,7 +4471,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4389,6 +4493,13 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
+                    <a:fld id="{4ED89F58-7F44-4514-844C-460C5A9A5EB4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr b="1"/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4408,7 +4519,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4421,6 +4536,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{F0B85B88-3D51-494F-BA15-B2F519FEB480}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4433,7 +4553,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4499,6 +4623,23 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$D$24:$D$26</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>-0.758</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-1.932</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>-3.107</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-7ACD-4577-9B6C-3FD6C97D6069}"/>
             </c:ext>
@@ -4829,6 +4970,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{233C02F4-4A06-4052-8BDC-90B72446EAD2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4840,7 +4986,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4853,6 +5003,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{AFCBA49B-C016-4E7D-BAEE-703DB4A36BDC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4864,7 +5019,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4877,6 +5036,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{B6B12D46-FAC9-41E7-B019-31798518DE99}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4888,7 +5052,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4901,6 +5069,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{D051B747-A3C2-4283-B270-4422EDB15199}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4912,7 +5085,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4925,6 +5102,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{A4326663-66F5-4730-8243-3BBF2DD6EA5E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4936,7 +5118,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4949,6 +5135,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{E2663016-51F0-47FD-901F-7703CD068F86}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4960,7 +5151,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4973,6 +5168,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{F5B513ED-3816-4134-A286-948C29C5DD16}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4984,7 +5184,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5121,6 +5325,47 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$Q$18:$Q$28</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.500</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-0.500</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>-1.000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>-1.500</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>-2.000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-FD7C-4E91-9B2D-29D3A1F40736}"/>
             </c:ext>
@@ -5576,6 +5821,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{D458F510-198A-4355-B6ED-68420A362D88}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -5588,7 +5838,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5606,6 +5860,13 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
+                    <a:fld id="{0F4B6BE0-44B2-4C41-8DC8-133D329E4993}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr b="1"/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -5625,7 +5886,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5638,6 +5903,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{3C5B1191-9241-4C9C-9DB1-50B4884EABDB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -5650,7 +5920,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5716,6 +5990,23 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$M$24:$M$26</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>-0.407</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-1.107</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>-1.841</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000019-FD7C-4E91-9B2D-29D3A1F40736}"/>
             </c:ext>
@@ -8345,16 +8636,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>302895</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152397</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>188592</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>40002</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8385,14 +8676,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>160017</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>13335</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>5712</xdr:rowOff>
+      <xdr:rowOff>47622</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8898,7 +9189,7 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -8952,7 +9243,7 @@
       <c r="I3" s="207"/>
       <c r="J3" s="207"/>
       <c r="K3" s="210" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L3" s="210"/>
       <c r="M3" s="210"/>
@@ -8975,7 +9266,7 @@
       <c r="I4" s="207"/>
       <c r="J4" s="207"/>
       <c r="K4" s="211" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L4" s="210"/>
       <c r="M4" s="210"/>
@@ -9149,7 +9440,7 @@
         <v>107</v>
       </c>
       <c r="K25" s="206" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -9189,7 +9480,7 @@
         <v>120</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -9229,7 +9520,7 @@
         <v>96</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9244,7 +9535,7 @@
         <v>97</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9290,8 +9581,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9317,33 +9608,33 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="K2" s="214" t="s">
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="K2" s="215" t="s">
         <v>121</v>
       </c>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="214"/>
-      <c r="T2" s="214" t="s">
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="T2" s="215" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="214"/>
-      <c r="V2" s="214"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="214"/>
+      <c r="U2" s="215"/>
+      <c r="V2" s="215"/>
+      <c r="W2" s="215"/>
+      <c r="X2" s="215"/>
+      <c r="Y2" s="215"/>
+      <c r="Z2" s="215"/>
     </row>
     <row r="3" spans="2:26" ht="18.3" x14ac:dyDescent="0.7">
       <c r="E3" s="1"/>
@@ -9397,15 +9688,15 @@
       <c r="Z5" s="52"/>
     </row>
     <row r="6" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="219" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="218"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="218"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="219"/>
       <c r="K6" s="195" t="s">
         <v>60</v>
       </c>
@@ -9449,15 +9740,15 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="221" t="s">
+      <c r="B7" s="222" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
       <c r="K7" s="160" t="str">
         <f>IF($B$26="","",$B$26)</f>
         <v>Reassure</v>
@@ -9467,7 +9758,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="197" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O7" s="197">
         <v>18</v>
@@ -9508,13 +9799,13 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="222"/>
-      <c r="C8" s="222"/>
-      <c r="D8" s="222"/>
-      <c r="E8" s="222"/>
-      <c r="F8" s="222"/>
-      <c r="G8" s="222"/>
-      <c r="H8" s="222"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
       <c r="K8" s="161" t="str">
         <f>IF($B$27="","",$B$27)</f>
         <v>Challenge</v>
@@ -9524,7 +9815,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="198" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O8" s="198">
         <v>17</v>
@@ -9581,7 +9872,7 @@
         <v>3</v>
       </c>
       <c r="N9" s="198" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O9" s="198">
         <v>19</v>
@@ -9622,15 +9913,15 @@
       </c>
     </row>
     <row r="10" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="220" t="s">
+      <c r="B10" s="221" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="220"/>
-      <c r="D10" s="220"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="220"/>
-      <c r="H10" s="220"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="221"/>
       <c r="K10" s="161" t="str">
         <f>IF($B$29="","",$B$29)</f>
         <v/>
@@ -9672,15 +9963,15 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="215" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="215"/>
-      <c r="D11" s="215"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="215"/>
-      <c r="G11" s="215"/>
-      <c r="H11" s="215"/>
+      <c r="B11" s="216" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="216"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="216"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="216"/>
       <c r="K11" s="72" t="s">
         <v>49</v>
       </c>
@@ -9730,13 +10021,13 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="216"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="216"/>
-      <c r="E12" s="216"/>
-      <c r="F12" s="216"/>
-      <c r="G12" s="216"/>
-      <c r="H12" s="216"/>
+      <c r="B12" s="217"/>
+      <c r="C12" s="217"/>
+      <c r="D12" s="217"/>
+      <c r="E12" s="217"/>
+      <c r="F12" s="217"/>
+      <c r="G12" s="217"/>
+      <c r="H12" s="217"/>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
@@ -9754,13 +10045,13 @@
       <c r="Z12" s="38"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="216"/>
-      <c r="C13" s="216"/>
-      <c r="D13" s="216"/>
-      <c r="E13" s="216"/>
-      <c r="F13" s="216"/>
-      <c r="G13" s="216"/>
-      <c r="H13" s="216"/>
+      <c r="B13" s="217"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="217"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="217"/>
+      <c r="G13" s="217"/>
+      <c r="H13" s="217"/>
       <c r="S13" s="52"/>
       <c r="T13" s="52" t="s">
         <v>61</v>
@@ -9773,13 +10064,13 @@
       <c r="Z13" s="52"/>
     </row>
     <row r="14" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="217"/>
-      <c r="C14" s="217"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="217"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="217"/>
+      <c r="B14" s="218"/>
+      <c r="C14" s="218"/>
+      <c r="D14" s="218"/>
+      <c r="E14" s="218"/>
+      <c r="F14" s="218"/>
+      <c r="G14" s="218"/>
+      <c r="H14" s="218"/>
       <c r="S14" s="52"/>
       <c r="T14" s="52"/>
       <c r="U14" s="52"/>
@@ -9826,16 +10117,16 @@
       <c r="Z20" s="52"/>
     </row>
     <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="218" t="s">
+      <c r="B21" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="218"/>
-      <c r="D21" s="219" t="s">
+      <c r="C21" s="219"/>
+      <c r="D21" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="219"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="219"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="220"/>
       <c r="H21" s="10" t="s">
         <v>27</v>
       </c>
@@ -9861,16 +10152,16 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="212" t="s">
+      <c r="B22" s="213" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="213"/>
+      <c r="D22" s="213" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="212"/>
-      <c r="D22" s="212" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="212"/>
-      <c r="F22" s="212"/>
-      <c r="G22" s="212"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="213"/>
+      <c r="G22" s="213"/>
       <c r="H22" s="103">
         <v>1</v>
       </c>
@@ -9886,16 +10177,16 @@
       <c r="Z22" s="108"/>
     </row>
     <row r="23" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="213" t="s">
+      <c r="B23" s="212" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="212"/>
+      <c r="D23" s="212" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="213"/>
-      <c r="D23" s="213" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="213"/>
-      <c r="F23" s="213"/>
-      <c r="G23" s="213"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="212"/>
       <c r="H23" s="104">
         <v>2</v>
       </c>
@@ -9956,16 +10247,16 @@
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="212" t="s">
+      <c r="B26" s="213" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="213"/>
+      <c r="D26" s="213" t="s">
         <v>132</v>
       </c>
-      <c r="C26" s="212"/>
-      <c r="D26" s="212" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="212"/>
-      <c r="F26" s="212"/>
-      <c r="G26" s="212"/>
+      <c r="E26" s="213"/>
+      <c r="F26" s="213"/>
+      <c r="G26" s="213"/>
       <c r="H26" s="103">
         <v>1</v>
       </c>
@@ -9979,16 +10270,16 @@
       <c r="Z26" s="38"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="223" t="s">
+      <c r="B27" s="214" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="214"/>
+      <c r="D27" s="214" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="223"/>
-      <c r="D27" s="223" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="223"/>
-      <c r="F27" s="223"/>
-      <c r="G27" s="223"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
       <c r="H27" s="51">
         <v>2</v>
       </c>
@@ -10004,16 +10295,16 @@
       <c r="Z27" s="52"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="223" t="s">
+      <c r="B28" s="214" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="214"/>
+      <c r="D28" s="214" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="223"/>
-      <c r="D28" s="223" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="214"/>
       <c r="H28" s="51">
         <v>3</v>
       </c>
@@ -10027,12 +10318,12 @@
       <c r="Z28" s="52"/>
     </row>
     <row r="29" spans="2:26" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B29" s="213"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="213"/>
-      <c r="E29" s="213"/>
-      <c r="F29" s="213"/>
-      <c r="G29" s="213"/>
+      <c r="B29" s="212"/>
+      <c r="C29" s="212"/>
+      <c r="D29" s="212"/>
+      <c r="E29" s="212"/>
+      <c r="F29" s="212"/>
+      <c r="G29" s="212"/>
       <c r="H29" s="104"/>
       <c r="T29" s="59" t="s">
         <v>52</v>
@@ -10226,14 +10517,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="21">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -10247,6 +10530,14 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12110,8 +12401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AA45"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView showRuler="0" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/EASE/EASE(S)-OneWay-Rattan.xlsx
+++ b/EASE/EASE(S)-OneWay-Rattan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="114_{A20865A6-9300-4990-B397-5A911DB3B1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B41DD0F-969D-477C-A9A7-A4D15BC5A381}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="114_{2255998C-5D2C-4882-98D8-F4AF10CC5630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3252FD71-AD8F-4CA2-A562-9F70F6DB2E74}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="31" r:id="rId1"/>
@@ -405,9 +405,6 @@
     <t>EASE also includes null hypothesis significance tests.</t>
   </si>
   <si>
-    <t>http://www4.uwsp.edu/psych/cw/</t>
-  </si>
-  <si>
     <t>Using this Module</t>
   </si>
   <si>
@@ -481,6 +478,9 @@
   </si>
   <si>
     <t>This is the summary data from Rattan (2012) as used in Chap. 14 of Cumming and Calin-Jageman (2016) to demonstrate One-Way designs.</t>
+  </si>
+  <si>
+    <t>http://cwendorf.github.io</t>
   </si>
 </sst>
 </file>
@@ -1458,15 +1458,11 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1496,6 +1492,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3544,7 +3544,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0A15-48DF-A26A-9BB03F5A278C}"/>
                 </c:ext>
@@ -3568,7 +3570,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-0A15-48DF-A26A-9BB03F5A278C}"/>
                 </c:ext>
@@ -3592,7 +3596,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0A15-48DF-A26A-9BB03F5A278C}"/>
                 </c:ext>
@@ -3616,7 +3622,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3629,7 +3637,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3265A31-6700-453D-931B-5FFB5157F782}" type="CELLRANGE">
+                    <a:fld id="{D41DDC3D-33B6-41FB-92AB-540CCC3C2F77}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3662,7 +3670,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC8D5598-BF64-44B6-A6B9-DE152194C5A7}" type="CELLRANGE">
+                    <a:fld id="{CBBFE813-470C-4911-AF46-FFC9CD4B5743}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3695,7 +3703,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38D711DD-A0E0-4A26-98A1-198ECF5AAD68}" type="CELLRANGE">
+                    <a:fld id="{3E9B8060-E1F9-4597-9303-809189ED3A51}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3728,7 +3736,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F814B859-1282-47AC-BDD0-C0F168372440}" type="CELLRANGE">
+                    <a:fld id="{F0B4AAFE-C6D8-46B8-B6F1-50A2B5045ADC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3761,7 +3769,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA24BD9B-6108-44E6-9283-54229E3B556B}" type="CELLRANGE">
+                    <a:fld id="{C3B5B676-F14E-4610-9559-D2E4A0D9E5AF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3794,7 +3802,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{77FCB33A-3AC2-4D40-BCA2-A54FFBDF05EC}" type="CELLRANGE">
+                    <a:fld id="{050209AC-37B2-4E67-88E0-6FF8FD8F6633}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3838,7 +3846,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-97B6-4CF0-9A3E-619917FF6CA1}"/>
                 </c:ext>
@@ -4454,7 +4464,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79299B35-18C9-4DC7-8760-D46E7AB5286C}" type="CELLRANGE">
+                    <a:fld id="{15DC56D5-3FD2-4B3D-A060-7A8BF9CD1F75}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4493,7 +4503,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{4ED89F58-7F44-4514-844C-460C5A9A5EB4}" type="CELLRANGE">
+                    <a:fld id="{1251DB75-0C32-4903-B386-BC45A0EF32EA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -4536,7 +4546,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F0B85B88-3D51-494F-BA15-B2F519FEB480}" type="CELLRANGE">
+                    <a:fld id="{BC7FDA80-ACC3-4692-A311-EC32E149E46B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4909,7 +4919,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4933,7 +4945,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4957,7 +4971,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4970,7 +4986,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{233C02F4-4A06-4052-8BDC-90B72446EAD2}" type="CELLRANGE">
+                    <a:fld id="{4250D22D-C99C-4486-92D7-A50FDC0FDD04}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5003,7 +5019,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFCBA49B-C016-4E7D-BAEE-703DB4A36BDC}" type="CELLRANGE">
+                    <a:fld id="{919BABC3-8A7B-42D3-BCF9-25C6CB24B6CB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5036,7 +5052,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6B12D46-FAC9-41E7-B019-31798518DE99}" type="CELLRANGE">
+                    <a:fld id="{617B4154-4D6B-4CBC-BB25-6F9AB6CDF350}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5069,7 +5085,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D051B747-A3C2-4283-B270-4422EDB15199}" type="CELLRANGE">
+                    <a:fld id="{A42292EA-523C-42A5-9FA5-11E0E9976902}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5102,7 +5118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4326663-66F5-4730-8243-3BBF2DD6EA5E}" type="CELLRANGE">
+                    <a:fld id="{6CB9EA4B-DA1F-449C-9ACC-CCB04A6C32A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5135,7 +5151,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2663016-51F0-47FD-901F-7703CD068F86}" type="CELLRANGE">
+                    <a:fld id="{509F0812-939E-4883-8650-7588E6CD7528}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5168,7 +5184,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F5B513ED-3816-4134-A286-948C29C5DD16}" type="CELLRANGE">
+                    <a:fld id="{046D0DA0-FDB2-432F-8D70-A2EADA28D9FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5212,7 +5228,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5821,7 +5839,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D458F510-198A-4355-B6ED-68420A362D88}" type="CELLRANGE">
+                    <a:fld id="{18C0241E-61CC-4254-A2CB-F4D9FD08C516}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5860,7 +5878,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{0F4B6BE0-44B2-4C41-8DC8-133D329E4993}" type="CELLRANGE">
+                    <a:fld id="{5555C17D-EEC4-4514-92DA-C697A6002FBD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -5903,7 +5921,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C5B1191-9241-4C9C-9DB1-50B4884EABDB}" type="CELLRANGE">
+                    <a:fld id="{FB8880FF-A2CA-49D2-A4A1-04061B4E492B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9189,8 +9207,8 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -9209,7 +9227,7 @@
     <row r="2" spans="1:17" s="143" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="146"/>
       <c r="B2" s="208" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="208"/>
       <c r="D2" s="208"/>
@@ -9243,7 +9261,7 @@
       <c r="I3" s="207"/>
       <c r="J3" s="207"/>
       <c r="K3" s="210" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L3" s="210"/>
       <c r="M3" s="210"/>
@@ -9255,7 +9273,7 @@
     <row r="4" spans="1:17" s="152" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="151"/>
       <c r="B4" s="210" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="210"/>
       <c r="D4" s="210"/>
@@ -9266,7 +9284,7 @@
       <c r="I4" s="207"/>
       <c r="J4" s="207"/>
       <c r="K4" s="211" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L4" s="210"/>
       <c r="M4" s="210"/>
@@ -9347,7 +9365,7 @@
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="29"/>
       <c r="B16" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K16" s="40" t="s">
         <v>46</v>
@@ -9434,13 +9452,13 @@
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="29"/>
       <c r="B25" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>107</v>
       </c>
       <c r="K25" s="206" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -9457,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="206" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -9477,10 +9495,10 @@
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="29"/>
       <c r="B28" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -9520,7 +9538,7 @@
         <v>96</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9535,7 +9553,7 @@
         <v>97</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9581,7 +9599,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -9608,33 +9626,33 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="K2" s="215" t="s">
-        <v>121</v>
-      </c>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="T2" s="215" t="s">
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="K2" s="214" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="T2" s="214" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="215"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="214"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="214"/>
     </row>
     <row r="3" spans="2:26" ht="18.3" x14ac:dyDescent="0.7">
       <c r="E3" s="1"/>
@@ -9688,15 +9706,15 @@
       <c r="Z5" s="52"/>
     </row>
     <row r="6" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="219" t="s">
+      <c r="B6" s="218" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="219"/>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="219"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
       <c r="K6" s="195" t="s">
         <v>60</v>
       </c>
@@ -9740,15 +9758,15 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="222" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="222"/>
-      <c r="D7" s="222"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="222"/>
+      <c r="B7" s="221" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="221"/>
       <c r="K7" s="160" t="str">
         <f>IF($B$26="","",$B$26)</f>
         <v>Reassure</v>
@@ -9758,7 +9776,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="197" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O7" s="197">
         <v>18</v>
@@ -9799,13 +9817,13 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="223"/>
-      <c r="C8" s="223"/>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="223"/>
+      <c r="B8" s="222"/>
+      <c r="C8" s="222"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="222"/>
       <c r="K8" s="161" t="str">
         <f>IF($B$27="","",$B$27)</f>
         <v>Challenge</v>
@@ -9815,7 +9833,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="198" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O8" s="198">
         <v>17</v>
@@ -9872,7 +9890,7 @@
         <v>3</v>
       </c>
       <c r="N9" s="198" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O9" s="198">
         <v>19</v>
@@ -9913,15 +9931,15 @@
       </c>
     </row>
     <row r="10" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="221" t="s">
+      <c r="B10" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="221"/>
+      <c r="C10" s="220"/>
+      <c r="D10" s="220"/>
+      <c r="E10" s="220"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="220"/>
+      <c r="H10" s="220"/>
       <c r="K10" s="161" t="str">
         <f>IF($B$29="","",$B$29)</f>
         <v/>
@@ -9963,15 +9981,15 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="216" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="216"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="216"/>
-      <c r="F11" s="216"/>
-      <c r="G11" s="216"/>
-      <c r="H11" s="216"/>
+      <c r="B11" s="215" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="215"/>
+      <c r="D11" s="215"/>
+      <c r="E11" s="215"/>
+      <c r="F11" s="215"/>
+      <c r="G11" s="215"/>
+      <c r="H11" s="215"/>
       <c r="K11" s="72" t="s">
         <v>49</v>
       </c>
@@ -10021,13 +10039,13 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="217"/>
-      <c r="C12" s="217"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="217"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="217"/>
+      <c r="B12" s="216"/>
+      <c r="C12" s="216"/>
+      <c r="D12" s="216"/>
+      <c r="E12" s="216"/>
+      <c r="F12" s="216"/>
+      <c r="G12" s="216"/>
+      <c r="H12" s="216"/>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
@@ -10045,13 +10063,13 @@
       <c r="Z12" s="38"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="217"/>
-      <c r="C13" s="217"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="217"/>
-      <c r="G13" s="217"/>
-      <c r="H13" s="217"/>
+      <c r="B13" s="216"/>
+      <c r="C13" s="216"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="216"/>
+      <c r="G13" s="216"/>
+      <c r="H13" s="216"/>
       <c r="S13" s="52"/>
       <c r="T13" s="52" t="s">
         <v>61</v>
@@ -10064,13 +10082,13 @@
       <c r="Z13" s="52"/>
     </row>
     <row r="14" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="218"/>
-      <c r="C14" s="218"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="218"/>
-      <c r="F14" s="218"/>
-      <c r="G14" s="218"/>
-      <c r="H14" s="218"/>
+      <c r="B14" s="217"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="217"/>
+      <c r="E14" s="217"/>
+      <c r="F14" s="217"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="217"/>
       <c r="S14" s="52"/>
       <c r="T14" s="52"/>
       <c r="U14" s="52"/>
@@ -10117,16 +10135,16 @@
       <c r="Z20" s="52"/>
     </row>
     <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="219" t="s">
+      <c r="B21" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="219"/>
-      <c r="D21" s="220" t="s">
+      <c r="C21" s="218"/>
+      <c r="D21" s="219" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="220"/>
-      <c r="F21" s="220"/>
-      <c r="G21" s="220"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="219"/>
+      <c r="G21" s="219"/>
       <c r="H21" s="10" t="s">
         <v>27</v>
       </c>
@@ -10152,16 +10170,16 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="213" t="s">
+      <c r="B22" s="212" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="212"/>
+      <c r="D22" s="212" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="213"/>
-      <c r="D22" s="213" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="213"/>
-      <c r="F22" s="213"/>
-      <c r="G22" s="213"/>
+      <c r="E22" s="212"/>
+      <c r="F22" s="212"/>
+      <c r="G22" s="212"/>
       <c r="H22" s="103">
         <v>1</v>
       </c>
@@ -10177,16 +10195,16 @@
       <c r="Z22" s="108"/>
     </row>
     <row r="23" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="212" t="s">
+      <c r="B23" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="213"/>
+      <c r="D23" s="213" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="212"/>
-      <c r="D23" s="212" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="212"/>
-      <c r="F23" s="212"/>
-      <c r="G23" s="212"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="213"/>
+      <c r="G23" s="213"/>
       <c r="H23" s="104">
         <v>2</v>
       </c>
@@ -10247,16 +10265,16 @@
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="213" t="s">
+      <c r="B26" s="212" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="212"/>
+      <c r="D26" s="212" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="213"/>
-      <c r="D26" s="213" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="213"/>
-      <c r="F26" s="213"/>
-      <c r="G26" s="213"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="212"/>
       <c r="H26" s="103">
         <v>1</v>
       </c>
@@ -10270,16 +10288,16 @@
       <c r="Z26" s="38"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="214" t="s">
+      <c r="B27" s="223" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="223"/>
+      <c r="D27" s="223" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="214"/>
-      <c r="D27" s="214" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="214"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="214"/>
+      <c r="E27" s="223"/>
+      <c r="F27" s="223"/>
+      <c r="G27" s="223"/>
       <c r="H27" s="51">
         <v>2</v>
       </c>
@@ -10295,16 +10313,16 @@
       <c r="Z27" s="52"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="214" t="s">
+      <c r="B28" s="223" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="223"/>
+      <c r="D28" s="223" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="214"/>
-      <c r="D28" s="214" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="214"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="214"/>
+      <c r="E28" s="223"/>
+      <c r="F28" s="223"/>
+      <c r="G28" s="223"/>
       <c r="H28" s="51">
         <v>3</v>
       </c>
@@ -10318,12 +10336,12 @@
       <c r="Z28" s="52"/>
     </row>
     <row r="29" spans="2:26" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B29" s="212"/>
-      <c r="C29" s="212"/>
-      <c r="D29" s="212"/>
-      <c r="E29" s="212"/>
-      <c r="F29" s="212"/>
-      <c r="G29" s="212"/>
+      <c r="B29" s="213"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="213"/>
+      <c r="F29" s="213"/>
+      <c r="G29" s="213"/>
       <c r="H29" s="104"/>
       <c r="T29" s="59" t="s">
         <v>52</v>
@@ -10517,6 +10535,14 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="21">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -10530,14 +10556,6 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EASE/EASE(S)-OneWay-Rattan.xlsx
+++ b/EASE/EASE(S)-OneWay-Rattan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="114_{2255998C-5D2C-4882-98D8-F4AF10CC5630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA7FD0D3-22F8-4316-B8EB-AEE427A4EB71}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="114_{2255998C-5D2C-4882-98D8-F4AF10CC5630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8BB6F14-06CF-446A-BEE5-9CDCEA0FCF2C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <definedName name="SPSS">[2]Data!#REF!</definedName>
     <definedName name="SPSS2">[3]Data!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -459,16 +459,10 @@
     <t>B</t>
   </si>
   <si>
-    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheet].</t>
-  </si>
-  <si>
     <t>How to Cite</t>
   </si>
   <si>
     <t>cwendorf@uwsp.edu</t>
-  </si>
-  <si>
-    <t>Version: 2.20200104</t>
   </si>
   <si>
     <t>https://cwendorf.github.io/BASE/EASE</t>
@@ -480,7 +474,13 @@
     <t>http://cwendorf.github.io</t>
   </si>
   <si>
-    <t>Wendorf, C. A. (2020).</t>
+    <t>Version: 2.210601</t>
+  </si>
+  <si>
+    <t>Wendorf, C. A. (2021).</t>
+  </si>
+  <si>
+    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheets].</t>
   </si>
 </sst>
 </file>
@@ -1206,15 +1206,11 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1244,6 +1240,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3382,7 +3382,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9701BBF0-616A-44AB-967F-7502E9CA8322}" type="CELLRANGE">
+                    <a:fld id="{98CC4C46-CD3C-4D76-88BE-D5791AB9DD8B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3415,7 +3415,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A272D764-33C3-4C50-8FE0-2CB3607ACF40}" type="CELLRANGE">
+                    <a:fld id="{994B5B59-45A0-44DA-A4BB-5E3C5A292060}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3448,7 +3448,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A80A2C5-7905-48FD-8771-465869492A1F}" type="CELLRANGE">
+                    <a:fld id="{A71F6EB9-7C8E-46D6-BD4A-A587DAC1C3F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3481,7 +3481,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C1E519EF-DB36-434B-86AA-D93855AE5CFE}" type="CELLRANGE">
+                    <a:fld id="{5772B130-44EA-4EAF-A7CC-0476DFDE625C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3514,7 +3514,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CED67C90-C324-4C1F-9044-C699316981CE}" type="CELLRANGE">
+                    <a:fld id="{2273D1F5-3AFD-4CBD-8C74-CA67901F4E5C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3547,7 +3547,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D42CEF52-AB4B-4A53-B52D-5D35AB81A140}" type="CELLRANGE">
+                    <a:fld id="{BD2E918B-CDBF-4182-9197-3DD58AC29D08}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4209,7 +4209,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11B2F2A4-4174-4198-A85E-28CC40AAED0B}" type="CELLRANGE">
+                    <a:fld id="{08534B4C-9A11-4D7A-A401-9D9F347478AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4248,7 +4248,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{D06993B3-52EF-4100-B91D-4CADE9822441}" type="CELLRANGE">
+                    <a:fld id="{0E0134C5-7558-4C0A-9828-E23B6E04D87B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -4291,7 +4291,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B190695-83F8-4ED4-AD46-E0D6BA6DF949}" type="CELLRANGE">
+                    <a:fld id="{907D11AD-F090-4663-B5FD-ED6104E74046}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4731,7 +4731,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5926458-8AC5-4EA4-A7A3-8DE9A8B28552}" type="CELLRANGE">
+                    <a:fld id="{2344806D-CFF8-4CAF-A4D8-D315C609B2E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4764,7 +4764,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08264773-4C5B-4673-9734-746160C1C0F3}" type="CELLRANGE">
+                    <a:fld id="{A4DCB38C-EB9B-4628-9490-D43AF5E3D2BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4797,7 +4797,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1F09E233-E52D-4D79-8F8A-8A6E9C06FBD1}" type="CELLRANGE">
+                    <a:fld id="{AE949EFD-381D-44BA-81DC-2698BF6022E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4830,7 +4830,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{94E64421-4AC8-42DA-8D78-6CBFF1EBDFE8}" type="CELLRANGE">
+                    <a:fld id="{94163A50-94A5-413C-9E29-78A9E0EFF206}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4863,7 +4863,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D0D2BA3-1E89-41EB-9D15-C411A0C456B9}" type="CELLRANGE">
+                    <a:fld id="{3FB5ED44-B00D-4BF5-9408-D224B5742E63}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4896,7 +4896,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E79EB7B7-BA71-49FC-A99B-9B1D8F9BEECE}" type="CELLRANGE">
+                    <a:fld id="{BA30B3A8-0906-46DB-B54F-EF4416BA9E6F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4929,7 +4929,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5DB453C3-D44D-48AC-9ABD-7805E97A7F1C}" type="CELLRANGE">
+                    <a:fld id="{EB758E37-4CC7-4D0C-AD85-D2BD8404022F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5584,7 +5584,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3BCB6B6-5E83-49DD-9C07-EB95F9E70E6C}" type="CELLRANGE">
+                    <a:fld id="{541EE1FA-4335-4D85-ADCF-B782018EB9EC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5623,7 +5623,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{332C373F-CA1A-4845-9564-8753038ABF21}" type="CELLRANGE">
+                    <a:fld id="{9E05C085-86DF-4890-9D98-6E59C8626C35}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -5666,7 +5666,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DAA542A7-CF72-4435-98D2-E36E6CD9163E}" type="CELLRANGE">
+                    <a:fld id="{D43A43A6-FA52-482F-BDA3-0A516CD1C717}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9001,7 +9001,7 @@
       <c r="I3" s="92"/>
       <c r="J3" s="92"/>
       <c r="K3" s="125" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L3" s="125"/>
       <c r="M3" s="125"/>
@@ -9021,7 +9021,7 @@
       <c r="G4" s="125"/>
       <c r="H4" s="125"/>
       <c r="K4" s="126" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L4" s="125"/>
       <c r="M4" s="125"/>
@@ -9174,7 +9174,7 @@
         <v>106</v>
       </c>
       <c r="K25" s="122" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -9190,7 +9190,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="122" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -9211,7 +9211,7 @@
         <v>118</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -9234,7 +9234,7 @@
         <v>94</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -9248,7 +9248,7 @@
         <v>95</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9262,7 +9262,7 @@
         <v>96</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9330,33 +9330,33 @@
       <c r="M1"/>
     </row>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="K2" s="130" t="s">
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="K2" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="T2" s="130" t="s">
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="T2" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
     </row>
     <row r="3" spans="2:26" ht="18" x14ac:dyDescent="0.35">
       <c r="E3" s="1"/>
@@ -9384,15 +9384,15 @@
       <c r="M5"/>
     </row>
     <row r="6" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
       <c r="K6" s="50" t="s">
         <v>59</v>
       </c>
@@ -9435,15 +9435,15 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
       <c r="K7" s="52" t="str">
         <f>IF($B$26="","",$B$26)</f>
         <v>Reassure</v>
@@ -9493,13 +9493,13 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
       <c r="K8" s="54" t="str">
         <f>IF($B$27="","",$B$27)</f>
         <v>Challenge</v>
@@ -9605,15 +9605,15 @@
       </c>
     </row>
     <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
       <c r="K10" s="54" t="str">
         <f>IF($B$29="","",$B$29)</f>
         <v/>
@@ -9655,15 +9655,15 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="131" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
+      <c r="B11" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
       <c r="K11" s="56" t="s">
         <v>48</v>
       </c>
@@ -9712,13 +9712,13 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -9735,25 +9735,25 @@
       <c r="Z12" s="7"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
       <c r="T13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
     </row>
     <row r="19" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
@@ -9779,16 +9779,16 @@
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="134" t="s">
+      <c r="B21" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="135" t="s">
+      <c r="C21" s="133"/>
+      <c r="D21" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
       <c r="H21" s="8" t="s">
         <v>27</v>
       </c>
@@ -9813,16 +9813,16 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B22" s="128" t="s">
+      <c r="B22" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128" t="s">
+      <c r="C22" s="127"/>
+      <c r="D22" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
       <c r="H22" s="74">
         <v>1</v>
       </c>
@@ -9837,16 +9837,16 @@
       <c r="Z22" s="77"/>
     </row>
     <row r="23" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="127" t="s">
+      <c r="B23" s="128" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127" t="s">
+      <c r="C23" s="128"/>
+      <c r="D23" s="128" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
       <c r="H23" s="75">
         <v>2</v>
       </c>
@@ -9904,16 +9904,16 @@
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B26" s="128" t="s">
+      <c r="B26" s="127" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128" t="s">
+      <c r="C26" s="127"/>
+      <c r="D26" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
       <c r="H26" s="74">
         <v>1</v>
       </c>
@@ -9926,16 +9926,16 @@
       <c r="Z26" s="7"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129" t="s">
+      <c r="C27" s="138"/>
+      <c r="D27" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
       <c r="H27" s="40">
         <v>2</v>
       </c>
@@ -9944,27 +9944,27 @@
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B28" s="129" t="s">
+      <c r="B28" s="138" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129" t="s">
+      <c r="C28" s="138"/>
+      <c r="D28" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
       <c r="H28" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
       <c r="H29" s="75"/>
       <c r="T29" s="46" t="s">
         <v>51</v>
@@ -10158,6 +10158,14 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="21">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -10171,14 +10179,6 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10207,33 +10207,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="K2" s="130" t="s">
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="K2" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="T2" s="130" t="s">
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="T2" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -12030,33 +12030,33 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="K2" s="130" t="s">
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="K2" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="T2" s="130" t="s">
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="T2" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
     </row>
     <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="45" t="s">
@@ -13806,34 +13806,34 @@
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
       <c r="I2"/>
-      <c r="K2" s="130" t="s">
+      <c r="K2" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="T2" s="130" t="s">
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="T2" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3"/>

--- a/EASE/EASE(S)-OneWay-Rattan.xlsx
+++ b/EASE/EASE(S)-OneWay-Rattan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/EASE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="114_{2255998C-5D2C-4882-98D8-F4AF10CC5630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8BB6F14-06CF-446A-BEE5-9CDCEA0FCF2C}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="114_{2255998C-5D2C-4882-98D8-F4AF10CC5630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBBC3233-400A-40B9-89A7-45C598EF7B9E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="31" r:id="rId1"/>
@@ -1206,11 +1206,15 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1240,10 +1244,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3382,7 +3382,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98CC4C46-CD3C-4D76-88BE-D5791AB9DD8B}" type="CELLRANGE">
+                    <a:fld id="{0F505EE5-2761-4439-8CA3-B2F4BF1D1B1A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3415,7 +3415,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{994B5B59-45A0-44DA-A4BB-5E3C5A292060}" type="CELLRANGE">
+                    <a:fld id="{9B6AC4AA-DE3B-4728-8833-AE0A7D04082A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3448,7 +3448,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A71F6EB9-7C8E-46D6-BD4A-A587DAC1C3F6}" type="CELLRANGE">
+                    <a:fld id="{B12ECAE0-45F2-4014-90E6-3E47999F59DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3481,7 +3481,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5772B130-44EA-4EAF-A7CC-0476DFDE625C}" type="CELLRANGE">
+                    <a:fld id="{C5E487D1-7031-4E1D-958B-B2076A540FD6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3514,7 +3514,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2273D1F5-3AFD-4CBD-8C74-CA67901F4E5C}" type="CELLRANGE">
+                    <a:fld id="{4BF477A8-DAEA-4AB2-B724-289D0BE1C25B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3547,7 +3547,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD2E918B-CDBF-4182-9197-3DD58AC29D08}" type="CELLRANGE">
+                    <a:fld id="{536B2A7D-08BD-4F15-9B9A-EB4DB1194CC8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4209,7 +4209,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08534B4C-9A11-4D7A-A401-9D9F347478AD}" type="CELLRANGE">
+                    <a:fld id="{771AC924-A3BA-4BF6-923D-2C4BEB856F31}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4248,7 +4248,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{0E0134C5-7558-4C0A-9828-E23B6E04D87B}" type="CELLRANGE">
+                    <a:fld id="{99479008-1436-4E43-9D15-37F99F0AB105}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -4291,7 +4291,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{907D11AD-F090-4663-B5FD-ED6104E74046}" type="CELLRANGE">
+                    <a:fld id="{0E01430D-68F6-4E0B-958B-2C49DA8928F7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4731,7 +4731,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2344806D-CFF8-4CAF-A4D8-D315C609B2E1}" type="CELLRANGE">
+                    <a:fld id="{BA18C314-60BD-4D4D-9E31-8F6105299818}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4764,7 +4764,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4DCB38C-EB9B-4628-9490-D43AF5E3D2BA}" type="CELLRANGE">
+                    <a:fld id="{8F263F5B-47B3-42F8-9B53-9458976C3431}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4797,7 +4797,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE949EFD-381D-44BA-81DC-2698BF6022E8}" type="CELLRANGE">
+                    <a:fld id="{916C423B-9F0C-479D-9AE5-BD6EDD45F1D6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4830,7 +4830,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{94163A50-94A5-413C-9E29-78A9E0EFF206}" type="CELLRANGE">
+                    <a:fld id="{648E579B-923C-44AD-8EA8-D9700AC13125}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4863,7 +4863,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3FB5ED44-B00D-4BF5-9408-D224B5742E63}" type="CELLRANGE">
+                    <a:fld id="{293228AB-E70B-4B81-9E7E-D5ED75E29FE2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4896,7 +4896,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA30B3A8-0906-46DB-B54F-EF4416BA9E6F}" type="CELLRANGE">
+                    <a:fld id="{0F42F5FD-0FE6-4BB8-BE8B-AEAC285674BB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4929,7 +4929,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB758E37-4CC7-4D0C-AD85-D2BD8404022F}" type="CELLRANGE">
+                    <a:fld id="{625F214E-053D-4C57-B7DD-96F278C29B44}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5584,7 +5584,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{541EE1FA-4335-4D85-ADCF-B782018EB9EC}" type="CELLRANGE">
+                    <a:fld id="{5A54AA83-7E14-48D4-8AFB-D81C4F70C555}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5623,7 +5623,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{9E05C085-86DF-4890-9D98-6E59C8626C35}" type="CELLRANGE">
+                    <a:fld id="{302ABBE3-F668-46D1-AF31-DE36135D9AD5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -5666,7 +5666,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D43A43A6-FA52-482F-BDA3-0A516CD1C717}" type="CELLRANGE">
+                    <a:fld id="{3881A907-EBD5-408F-8D5F-40BB6D440219}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8627,9 +8627,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8667,9 +8667,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8702,26 +8702,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8754,26 +8737,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9280,7 +9246,7 @@
       <c r="Q33"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="K2:Q2"/>
@@ -9330,33 +9296,33 @@
       <c r="M1"/>
     </row>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="K2" s="129" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="K2" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="T2" s="129" t="s">
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="T2" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
     </row>
     <row r="3" spans="2:26" ht="18" x14ac:dyDescent="0.35">
       <c r="E3" s="1"/>
@@ -9384,15 +9350,15 @@
       <c r="M5"/>
     </row>
     <row r="6" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
       <c r="K6" s="50" t="s">
         <v>59</v>
       </c>
@@ -9435,15 +9401,15 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
       <c r="K7" s="52" t="str">
         <f>IF($B$26="","",$B$26)</f>
         <v>Reassure</v>
@@ -9493,13 +9459,13 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
       <c r="K8" s="54" t="str">
         <f>IF($B$27="","",$B$27)</f>
         <v>Challenge</v>
@@ -9605,15 +9571,15 @@
       </c>
     </row>
     <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
       <c r="K10" s="54" t="str">
         <f>IF($B$29="","",$B$29)</f>
         <v/>
@@ -9655,15 +9621,15 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
       <c r="K11" s="56" t="s">
         <v>48</v>
       </c>
@@ -9712,13 +9678,13 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -9735,25 +9701,25 @@
       <c r="Z12" s="7"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
       <c r="T13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
     </row>
     <row r="19" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
@@ -9779,16 +9745,16 @@
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="134" t="s">
+      <c r="C21" s="134"/>
+      <c r="D21" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
       <c r="H21" s="8" t="s">
         <v>27</v>
       </c>
@@ -9813,16 +9779,16 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127" t="s">
+      <c r="C22" s="128"/>
+      <c r="D22" s="128" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
       <c r="H22" s="74">
         <v>1</v>
       </c>
@@ -9837,16 +9803,16 @@
       <c r="Z22" s="77"/>
     </row>
     <row r="23" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="128" t="s">
+      <c r="B23" s="127" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128" t="s">
+      <c r="C23" s="127"/>
+      <c r="D23" s="127" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
       <c r="H23" s="75">
         <v>2</v>
       </c>
@@ -9904,16 +9870,16 @@
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="128" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127" t="s">
+      <c r="C26" s="128"/>
+      <c r="D26" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
       <c r="H26" s="74">
         <v>1</v>
       </c>
@@ -9926,16 +9892,16 @@
       <c r="Z26" s="7"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B27" s="138" t="s">
+      <c r="B27" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138" t="s">
+      <c r="C27" s="129"/>
+      <c r="D27" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
       <c r="H27" s="40">
         <v>2</v>
       </c>
@@ -9944,27 +9910,27 @@
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B28" s="138" t="s">
+      <c r="B28" s="129" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138" t="s">
+      <c r="C28" s="129"/>
+      <c r="D28" s="129" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
       <c r="H28" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="128"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
       <c r="H29" s="75"/>
       <c r="T29" s="46" t="s">
         <v>51</v>
@@ -10158,14 +10124,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="21">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -10179,6 +10137,14 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10207,33 +10173,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="K2" s="129" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="K2" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="T2" s="129" t="s">
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="T2" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -12030,33 +11996,33 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="K2" s="129" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="K2" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="T2" s="129" t="s">
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="T2" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
     </row>
     <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="45" t="s">
@@ -13806,34 +13772,34 @@
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
       <c r="I2"/>
-      <c r="K2" s="129" t="s">
+      <c r="K2" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="T2" s="129" t="s">
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="T2" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3"/>

--- a/EASE/EASE(S)-OneWay-Rattan.xlsx
+++ b/EASE/EASE(S)-OneWay-Rattan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="114_{2255998C-5D2C-4882-98D8-F4AF10CC5630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBBC3233-400A-40B9-89A7-45C598EF7B9E}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="114_{2255998C-5D2C-4882-98D8-F4AF10CC5630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB1C0E9A-25B6-4516-AD89-5F22DB3B6B6A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,22 +465,22 @@
     <t>cwendorf@uwsp.edu</t>
   </si>
   <si>
-    <t>https://cwendorf.github.io/BASE/EASE</t>
-  </si>
-  <si>
     <t>This is the summary data from Rattan (2012) as used in Chap. 14 of Cumming and Calin-Jageman (2016) to demonstrate One-Way designs.</t>
   </si>
   <si>
     <t>http://cwendorf.github.io</t>
   </si>
   <si>
-    <t>Version: 2.210601</t>
-  </si>
-  <si>
     <t>Wendorf, C. A. (2021).</t>
   </si>
   <si>
     <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheets].</t>
+  </si>
+  <si>
+    <t>https://github.com/cwendorf/BASE/tree/main/EASE</t>
+  </si>
+  <si>
+    <t>Version: 2.241027</t>
   </si>
 </sst>
 </file>
@@ -3382,7 +3382,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F505EE5-2761-4439-8CA3-B2F4BF1D1B1A}" type="CELLRANGE">
+                    <a:fld id="{3B9BF23C-6AEB-4B06-B921-EF8136507655}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3415,7 +3415,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B6AC4AA-DE3B-4728-8833-AE0A7D04082A}" type="CELLRANGE">
+                    <a:fld id="{0AEAE50D-406E-4853-801A-41911E1F4A6E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3448,7 +3448,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B12ECAE0-45F2-4014-90E6-3E47999F59DA}" type="CELLRANGE">
+                    <a:fld id="{79A8FA34-1EA5-4FA1-A7B0-5B96624C1388}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3481,7 +3481,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5E487D1-7031-4E1D-958B-B2076A540FD6}" type="CELLRANGE">
+                    <a:fld id="{D9F3C797-1E17-45FF-9BF2-B20E0084E50F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3514,7 +3514,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BF477A8-DAEA-4AB2-B724-289D0BE1C25B}" type="CELLRANGE">
+                    <a:fld id="{AFF7F882-FEB1-4185-965B-3B26C71A96B2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3547,7 +3547,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{536B2A7D-08BD-4F15-9B9A-EB4DB1194CC8}" type="CELLRANGE">
+                    <a:fld id="{A252BDB8-68EB-4695-81F5-F85895C71442}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4209,7 +4209,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{771AC924-A3BA-4BF6-923D-2C4BEB856F31}" type="CELLRANGE">
+                    <a:fld id="{4EBBC77A-469D-43A6-B005-70B40F4029BB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4248,7 +4248,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{99479008-1436-4E43-9D15-37F99F0AB105}" type="CELLRANGE">
+                    <a:fld id="{6944AFC6-35FE-481F-AEB4-487877E6F725}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -4291,7 +4291,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E01430D-68F6-4E0B-958B-2C49DA8928F7}" type="CELLRANGE">
+                    <a:fld id="{706BC068-4A31-4A3C-95D1-6C1ABA593346}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4731,7 +4731,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA18C314-60BD-4D4D-9E31-8F6105299818}" type="CELLRANGE">
+                    <a:fld id="{A9BDFAF6-3C5A-4756-9E85-4DBCF65DCE73}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4764,7 +4764,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F263F5B-47B3-42F8-9B53-9458976C3431}" type="CELLRANGE">
+                    <a:fld id="{6B68EDFB-E7E1-46B0-841B-3BECD41AB3AA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4797,7 +4797,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{916C423B-9F0C-479D-9AE5-BD6EDD45F1D6}" type="CELLRANGE">
+                    <a:fld id="{5885DB61-83C4-4B89-849A-8FB24AFFC230}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4830,7 +4830,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{648E579B-923C-44AD-8EA8-D9700AC13125}" type="CELLRANGE">
+                    <a:fld id="{049361A0-9C78-43A8-B433-035876EC0916}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4863,7 +4863,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{293228AB-E70B-4B81-9E7E-D5ED75E29FE2}" type="CELLRANGE">
+                    <a:fld id="{C5AF2CCD-B1AB-49FB-8D22-5D3D1939191C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4896,7 +4896,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F42F5FD-0FE6-4BB8-BE8B-AEAC285674BB}" type="CELLRANGE">
+                    <a:fld id="{9DF78E95-9CBA-43A4-A5FE-5C528AC1BC2B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4929,7 +4929,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{625F214E-053D-4C57-B7DD-96F278C29B44}" type="CELLRANGE">
+                    <a:fld id="{3286F2C2-F25B-4F5B-A928-6215D895BDE3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5584,7 +5584,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A54AA83-7E14-48D4-8AFB-D81C4F70C555}" type="CELLRANGE">
+                    <a:fld id="{8CCB3A00-895B-481E-8B58-FADE9F981814}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5623,7 +5623,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{302ABBE3-F668-46D1-AF31-DE36135D9AD5}" type="CELLRANGE">
+                    <a:fld id="{E0EC8D82-1A85-479A-AD85-8FEEA082F71E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -5666,7 +5666,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3881A907-EBD5-408F-8D5F-40BB6D440219}" type="CELLRANGE">
+                    <a:fld id="{95452FC1-7A69-4BE0-BE77-25B45ADC1794}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8626,6 +8626,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -8919,7 +8923,7 @@
   <dimension ref="B2:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="K4" sqref="K4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8967,7 +8971,7 @@
       <c r="I3" s="92"/>
       <c r="J3" s="92"/>
       <c r="K3" s="125" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L3" s="125"/>
       <c r="M3" s="125"/>
@@ -8987,7 +8991,7 @@
       <c r="G4" s="125"/>
       <c r="H4" s="125"/>
       <c r="K4" s="126" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L4" s="125"/>
       <c r="M4" s="125"/>
@@ -9156,7 +9160,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="122" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -9200,7 +9204,7 @@
         <v>94</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -9214,7 +9218,7 @@
         <v>95</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9228,7 +9232,7 @@
         <v>96</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9257,8 +9261,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K25" r:id="rId3" xr:uid="{A280B9B9-7897-4495-83E3-4A6DC1C0DFE2}"/>
+    <hyperlink ref="K25" r:id="rId2" xr:uid="{A280B9B9-7897-4495-83E3-4A6DC1C0DFE2}"/>
+    <hyperlink ref="K4" r:id="rId3" display="https://cwendorf.github.io/BASE/EASE" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -9622,7 +9626,7 @@
     </row>
     <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="131"/>
       <c r="D11" s="131"/>

--- a/EASE/EASE(S)-OneWay-Rattan.xlsx
+++ b/EASE/EASE(S)-OneWay-Rattan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="114_{2255998C-5D2C-4882-98D8-F4AF10CC5630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB1C0E9A-25B6-4516-AD89-5F22DB3B6B6A}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="114_{2255998C-5D2C-4882-98D8-F4AF10CC5630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31619159-929D-4103-AF6D-FD80FF2DFC97}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3382,7 +3382,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B9BF23C-6AEB-4B06-B921-EF8136507655}" type="CELLRANGE">
+                    <a:fld id="{27D59B08-68DC-4F1F-9B13-C3B9D5061889}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3415,7 +3415,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AEAE50D-406E-4853-801A-41911E1F4A6E}" type="CELLRANGE">
+                    <a:fld id="{4A0267CA-204D-4D82-99AF-6B75F1D309A9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3448,7 +3448,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79A8FA34-1EA5-4FA1-A7B0-5B96624C1388}" type="CELLRANGE">
+                    <a:fld id="{FA3BD94F-AD11-40C2-B19A-9BCE76E6545A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3481,7 +3481,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D9F3C797-1E17-45FF-9BF2-B20E0084E50F}" type="CELLRANGE">
+                    <a:fld id="{B4E57C57-54AA-4E25-9C89-719012A12D88}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3514,7 +3514,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFF7F882-FEB1-4185-965B-3B26C71A96B2}" type="CELLRANGE">
+                    <a:fld id="{390DFB3A-E5D0-4548-9FD8-6F9EE4161207}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3547,7 +3547,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A252BDB8-68EB-4695-81F5-F85895C71442}" type="CELLRANGE">
+                    <a:fld id="{B2D3CB0E-6283-4F02-AE58-FD6499C6E0F2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4209,7 +4209,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4EBBC77A-469D-43A6-B005-70B40F4029BB}" type="CELLRANGE">
+                    <a:fld id="{FDB53ADD-9D11-43AC-900B-73595527A850}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4248,7 +4248,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{6944AFC6-35FE-481F-AEB4-487877E6F725}" type="CELLRANGE">
+                    <a:fld id="{4BFCC5ED-30FC-4A88-9949-31B8F742B8C8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -4291,7 +4291,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{706BC068-4A31-4A3C-95D1-6C1ABA593346}" type="CELLRANGE">
+                    <a:fld id="{D06C6108-2304-4898-9B15-06F05E32666C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4731,7 +4731,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A9BDFAF6-3C5A-4756-9E85-4DBCF65DCE73}" type="CELLRANGE">
+                    <a:fld id="{D38ECFFE-2007-494C-926C-57069CB27E14}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4764,7 +4764,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B68EDFB-E7E1-46B0-841B-3BECD41AB3AA}" type="CELLRANGE">
+                    <a:fld id="{782F8DC4-9BA6-4F72-A21E-0C4BDFDF3CD6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4797,7 +4797,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5885DB61-83C4-4B89-849A-8FB24AFFC230}" type="CELLRANGE">
+                    <a:fld id="{4FD57D50-CB21-44DE-A6DA-92895183AAA0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4830,7 +4830,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{049361A0-9C78-43A8-B433-035876EC0916}" type="CELLRANGE">
+                    <a:fld id="{7532EE36-F68F-4745-809F-B8F22B5ECA39}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4863,7 +4863,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5AF2CCD-B1AB-49FB-8D22-5D3D1939191C}" type="CELLRANGE">
+                    <a:fld id="{764F8BBA-AD12-4FD8-A0AD-C3E0C963A43E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4896,7 +4896,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9DF78E95-9CBA-43A4-A5FE-5C528AC1BC2B}" type="CELLRANGE">
+                    <a:fld id="{D076B721-932C-4FD0-8EB5-1AF64A67D8ED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4929,7 +4929,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3286F2C2-F25B-4F5B-A928-6215D895BDE3}" type="CELLRANGE">
+                    <a:fld id="{64E0DB8A-0971-4C47-A1EA-F0F843CD58B7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5584,7 +5584,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8CCB3A00-895B-481E-8B58-FADE9F981814}" type="CELLRANGE">
+                    <a:fld id="{40AF389C-55C3-4156-83EE-2A9B4F3B75D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5623,7 +5623,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{E0EC8D82-1A85-479A-AD85-8FEEA082F71E}" type="CELLRANGE">
+                    <a:fld id="{7341D60A-ECED-41D0-8738-6D84119BAA49}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -5666,7 +5666,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95452FC1-7A69-4BE0-BE77-25B45ADC1794}" type="CELLRANGE">
+                    <a:fld id="{D40781F0-6CD7-48A3-A28F-55DC9DCE1837}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8626,10 +8626,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
